--- a/week3滑动窗口/信息矩阵.xlsx
+++ b/week3滑动窗口/信息矩阵.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7128"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,9 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -431,16 +428,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1">
@@ -463,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2637,7 +2631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2647,13 +2641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="AJ40" sqref="AJ40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="27.9" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="27.95" customHeight="1">
+    <row r="1" spans="1:40" ht="27.9" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2709,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="27.95" customHeight="1">
+    <row r="2" spans="1:40" ht="27.9" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2738,7 +2732,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:40" ht="27.95" customHeight="1">
+    <row r="3" spans="1:40" ht="27.9" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2767,7 +2761,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="27.95" customHeight="1">
+    <row r="4" spans="1:40" ht="27.9" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2793,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:40" ht="27.95" customHeight="1">
+    <row r="5" spans="1:40" ht="27.9" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +2822,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="27.95" customHeight="1">
+    <row r="6" spans="1:40" ht="27.9" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2857,7 +2851,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="27.95" customHeight="1">
+    <row r="7" spans="1:40" ht="27.9" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2886,7 +2880,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="27.95" customHeight="1">
+    <row r="10" spans="1:40" ht="27.9" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="27.95" customHeight="1">
+    <row r="11" spans="1:40" ht="27.9" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2971,7 +2965,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="27.95" customHeight="1">
+    <row r="12" spans="1:40" ht="27.9" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +2995,7 @@
       <c r="Y12" s="3"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" ht="27.95" customHeight="1">
+    <row r="13" spans="1:40" ht="27.9" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +3027,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:40" ht="27.95" customHeight="1">
+    <row r="14" spans="1:40" ht="27.9" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -3062,7 +3056,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="27.95" customHeight="1">
+    <row r="15" spans="1:40" ht="27.9" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3091,7 +3085,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:40" ht="27.95" customHeight="1">
+    <row r="16" spans="1:40" ht="27.9" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -3120,15 +3114,15 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:37" ht="27.95" customHeight="1">
-      <c r="AG17" s="5" t="s">
+    <row r="17" spans="1:37" ht="27.9" customHeight="1">
+      <c r="AG17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
     </row>
-    <row r="19" spans="1:37" ht="27.95" customHeight="1">
+    <row r="19" spans="1:37" ht="27.9" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="27.95" customHeight="1">
+    <row r="20" spans="1:37" ht="27.9" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -3240,7 +3234,7 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:37" ht="27.95" customHeight="1">
+    <row r="21" spans="1:37" ht="27.9" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -3273,12 +3267,12 @@
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="1"/>
+      <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
     </row>
-    <row r="22" spans="1:37" ht="27.95" customHeight="1">
+    <row r="22" spans="1:37" ht="27.9" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3312,13 +3306,13 @@
         <v>5</v>
       </c>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
     </row>
-    <row r="23" spans="1:37" ht="27.95" customHeight="1">
+    <row r="23" spans="1:37" ht="27.9" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -3356,7 +3350,7 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" ht="27.95" customHeight="1">
+    <row r="24" spans="1:37" ht="27.9" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3388,7 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" ht="27.95" customHeight="1">
+    <row r="25" spans="1:37" ht="27.9" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3432,15 +3426,15 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="3"/>
     </row>
-    <row r="30" spans="1:37" ht="27.95" customHeight="1">
-      <c r="F30" s="5" t="s">
+    <row r="30" spans="1:37" ht="27.9" customHeight="1">
+      <c r="F30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
-    <row r="32" spans="1:37" ht="27.95" customHeight="1" thickBot="1">
+    <row r="32" spans="1:37" ht="27.9" customHeight="1" thickBot="1">
       <c r="E32" s="2" t="s">
         <v>0</v>
       </c>
@@ -3460,16 +3454,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:43" ht="27.95" customHeight="1" thickBot="1">
+    <row r="33" spans="4:43" ht="27.9" customHeight="1" thickBot="1">
       <c r="D33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
       <c r="O33" s="2" t="s">
         <v>4</v>
       </c>
@@ -3519,21 +3513,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="4:43" ht="27.95" customHeight="1">
+    <row r="34" spans="4:43" ht="27.9" customHeight="1">
       <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
       <c r="N34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O34" s="3"/>
-      <c r="P34" s="1"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3554,25 +3548,25 @@
         <v>4</v>
       </c>
       <c r="AM34" s="3"/>
-      <c r="AN34" s="1"/>
+      <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
     </row>
-    <row r="35" spans="4:43" ht="27.95" customHeight="1">
+    <row r="35" spans="4:43" ht="27.9" customHeight="1">
       <c r="D35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="20"/>
+      <c r="J35" s="17"/>
       <c r="N35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O35" s="1"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="3"/>
@@ -3584,22 +3578,22 @@
       <c r="AL35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AM35" s="1"/>
+      <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
     </row>
-    <row r="36" spans="4:43" ht="27.95" customHeight="1">
+    <row r="36" spans="4:43" ht="27.9" customHeight="1">
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="22"/>
+      <c r="J36" s="19"/>
       <c r="N36" s="2" t="s">
         <v>1</v>
       </c>
@@ -3621,16 +3615,16 @@
       <c r="AP36" s="3"/>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="4:43" ht="27.95" customHeight="1">
+    <row r="37" spans="4:43" ht="27.9" customHeight="1">
       <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="3"/>
       <c r="H37" s="1"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="22"/>
+      <c r="J37" s="19"/>
       <c r="N37" s="2" t="s">
         <v>2</v>
       </c>
@@ -3652,16 +3646,16 @@
       <c r="AP37" s="3"/>
       <c r="AQ37" s="1"/>
     </row>
-    <row r="38" spans="4:43" ht="27.95" customHeight="1" thickBot="1">
+    <row r="38" spans="4:43" ht="27.9" customHeight="1" thickBot="1">
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3683,7 +3677,7 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="3"/>
     </row>
-    <row r="42" spans="4:43" ht="27.95" customHeight="1">
+    <row r="42" spans="4:43" ht="27.9" customHeight="1">
       <c r="AA42" s="2" t="s">
         <v>4</v>
       </c>
@@ -3700,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:43" ht="27.95" customHeight="1">
+    <row r="43" spans="4:43" ht="27.9" customHeight="1">
       <c r="Z43" s="2" t="s">
         <v>4</v>
       </c>
@@ -3710,7 +3704,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="4:43" ht="27.95" customHeight="1">
+    <row r="44" spans="4:43" ht="27.9" customHeight="1">
       <c r="Z44" s="2" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3714,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="4:43" ht="27.95" customHeight="1">
+    <row r="45" spans="4:43" ht="27.9" customHeight="1">
       <c r="Z45" s="2" t="s">
         <v>1</v>
       </c>
@@ -3730,7 +3724,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="4:43" ht="27.95" customHeight="1">
+    <row r="46" spans="4:43" ht="27.9" customHeight="1">
       <c r="Z46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3740,7 +3734,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="4:43" ht="27.95" customHeight="1">
+    <row r="47" spans="4:43" ht="27.9" customHeight="1">
       <c r="Z47" s="2" t="s">
         <v>3</v>
       </c>
